--- a/Projekt2/Sortowanie.xlsx
+++ b/Projekt2/Sortowanie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\source\repos\Piotr601\PAMSI\Projekt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD05C13A-049F-4200-86C3-143A50685DB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37215D10-DA3D-4D80-9644-6782AF0222A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EBD6B448-DD81-4078-9D8E-CABD40A131B1}"/>
   </bookViews>
@@ -6651,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C10C85-ABC6-48C6-80D6-99015EA13158}">
   <dimension ref="B3:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="J50" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="V47" sqref="V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Projekt2/Sortowanie.xlsx
+++ b/Projekt2/Sortowanie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\source\repos\Piotr601\PAMSI\Projekt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37215D10-DA3D-4D80-9644-6782AF0222A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2708DE35-5AAC-4F21-ABEB-3235088BB096}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EBD6B448-DD81-4078-9D8E-CABD40A131B1}"/>
   </bookViews>
@@ -144,15 +144,6 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -180,9 +171,6 @@
     <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -194,6 +182,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6202,13 +6202,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>481922</xdr:colOff>
+      <xdr:colOff>274104</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>35220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>244929</xdr:colOff>
+      <xdr:colOff>37111</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
@@ -6238,13 +6238,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>493719</xdr:colOff>
+      <xdr:colOff>112719</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>167951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>392866</xdr:colOff>
+      <xdr:colOff>11866</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
@@ -6276,13 +6276,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
+      <xdr:colOff>181331</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>256065</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>550475</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>89645</xdr:rowOff>
     </xdr:to>
@@ -6314,13 +6314,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
+      <xdr:colOff>131124</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>151279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>164017</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>493063</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>61630</xdr:rowOff>
     </xdr:to>
@@ -6651,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C10C85-ABC6-48C6-80D6-99015EA13158}">
   <dimension ref="B3:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J50" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6663,714 +6663,714 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="2" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="I3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2">
         <v>10000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>50000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>100000</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>500000</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>1000000</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5">
+      <c r="I4" s="1"/>
+      <c r="J4" s="2">
         <v>10000</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <v>50000</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="2">
         <v>100000</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="2">
         <v>500000</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="2">
         <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <v>0</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="9">
         <v>0</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="9">
         <v>0</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>0.25</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>3.0899999999999999E-3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>6.4599999999999996E-3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>3.4360000000000002E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>0.10532</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>0.25</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <v>2.2300000000000002E-3</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <v>1.362E-2</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="9">
         <v>2.6679999999999999E-2</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="9">
         <v>0.15196999999999999</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="9">
         <v>0.42523</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>0.5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>6.2599999999999999E-3</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>1.2760000000000001E-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>6.762E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>0.14072000000000001</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>0.5</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="9">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="9">
         <v>2.6780000000000002E-2</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="9">
         <v>5.6030000000000003E-2</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="9">
         <v>0.3014</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="9">
         <v>0.61973999999999996</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>0.75</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>9.8499999999999994E-3</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>1.9519999999999999E-2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>0.10356</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>0.21529999999999999</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>0.75</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="9">
         <v>7.4599999999999996E-3</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="9">
         <v>4.4040000000000003E-2</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="9">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="9">
         <v>0.45601999999999998</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="9">
         <v>0.94503000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>0.95</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>2.7200000000000002E-3</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>1.201E-2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>0.13372999999999999</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>0.27211999999999997</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>0.95</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="9">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="9">
         <v>5.2880000000000003E-2</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="9">
         <v>0.10979999999999999</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="9">
         <v>0.59257000000000004</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="9">
         <v>1.2056800000000001</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>0.99</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>2.4099999999999998E-3</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>1.234E-2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>2.5829999999999999E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>0.13572999999999999</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>0.28905999999999998</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>0.99</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="9">
         <v>1.0789999999999999E-2</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="9">
         <v>5.3789999999999998E-2</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="9">
         <v>0.1166</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="9">
         <v>0.60731999999999997</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="9">
         <v>1.25244</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>0.997</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>2.49E-3</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>1.244E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>2.596E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>0.13799</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>0.28028999999999998</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>0.997</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="9">
         <v>1.031E-2</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="9">
         <v>0.11650000000000001</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="9">
         <v>0.60902000000000001</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="9">
         <v>1.2475099999999999</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>1.67E-3</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>1.8550000000000001E-2</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>8.9120000000000005E-2</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="17">
         <v>0.17979000000000001</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="11">
         <v>3.8300000000000001E-3</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="11">
         <v>2.614E-2</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="11">
         <v>5.0290000000000001E-2</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="11">
         <v>0.28660000000000002</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="11">
         <v>0.58819999999999995</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="I15" s="3" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="I15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2">
         <v>10000</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>50000</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>100000</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>500000</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>1000000</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5">
+      <c r="I16" s="1"/>
+      <c r="J16" s="2">
         <v>10000</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="2">
         <v>50000</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="2">
         <v>100000</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="2">
         <v>500000</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="2">
         <v>1000000</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>0</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>0</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="13">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>0</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="12">
         <v>0</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <v>0</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="14">
         <v>0</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="14">
         <v>0</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="14">
         <v>0</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>0.25</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>1.07E-3</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <v>6.8300000000000001E-3</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>1.3860000000000001E-2</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="12">
         <v>7.7130000000000004E-2</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="12">
         <v>0.23285</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>0.25</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="14">
         <v>2.31E-3</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="14">
         <v>1.12E-2</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="14">
         <v>2.1780000000000001E-2</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="14">
         <v>0.11829000000000001</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="14">
         <v>0.35914000000000001</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>0.5</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>2.3400000000000001E-3</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <v>1.3469999999999999E-2</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>2.845E-2</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="12">
         <v>0.15847</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="12">
         <v>0.34066999999999997</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>0.5</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="14">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="14">
         <v>2.0830000000000001E-2</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="14">
         <v>4.5879999999999997E-2</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="14">
         <v>0.23033999999999999</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="14">
         <v>0.46046999999999999</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>0.75</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>3.9300000000000003E-3</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="12">
         <v>2.197E-2</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>4.3729999999999998E-2</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="12">
         <v>0.24646999999999999</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="12">
         <v>0.52730999999999995</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <v>0.75</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="14">
         <v>6.3200000000000001E-3</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="14">
         <v>3.4470000000000001E-2</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="14">
         <v>6.7339999999999997E-2</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="14">
         <v>0.36237999999999998</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="14">
         <v>0.70928000000000002</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>0.95</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>5.5100000000000001E-3</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="12">
         <v>2.673E-2</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>5.5489999999999998E-2</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="12">
         <v>0.32052000000000003</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="12">
         <v>0.67747999999999997</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>0.95</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="14">
         <v>4.3310000000000001E-2</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="14">
         <v>8.6190000000000003E-2</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="14">
         <v>0.43080000000000002</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="14">
         <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>0.99</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>5.3899999999999998E-3</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <v>2.741E-2</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <v>5.8160000000000003E-2</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="12">
         <v>0.32689000000000001</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="12">
         <v>0.70877999999999997</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <v>0.99</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="14">
         <v>8.5400000000000007E-3</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="14">
         <v>4.4220000000000002E-2</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="14">
         <v>9.196E-2</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="14">
         <v>0.44290000000000002</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="14">
         <v>0.95216999999999996</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>0.997</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>5.0299999999999997E-3</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="12">
         <v>2.7390000000000001E-2</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>6.0109999999999997E-2</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="12">
         <v>0.33307999999999999</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="12">
         <v>0.70279999999999998</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <v>0.997</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="14">
         <v>7.77E-3</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="14">
         <v>4.5019999999999998E-2</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="14">
         <v>9.085E-2</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="14">
         <v>0.44195000000000001</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="14">
         <v>0.94837000000000005</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="12">
         <v>1.102E-2</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <v>2.3029999999999998E-2</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="12">
         <v>0.15289</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="12">
         <v>0.33896999999999999</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="16">
         <v>8.5999999999999998E-4</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="16">
         <v>5.8300000000000001E-3</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="16">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="16">
         <v>7.1929999999999994E-2</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="18">
         <v>0.22652</v>
       </c>
     </row>

--- a/Projekt2/Sortowanie.xlsx
+++ b/Projekt2/Sortowanie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\source\repos\Piotr601\PAMSI\Projekt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2708DE35-5AAC-4F21-ABEB-3235088BB096}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62703517-0165-445F-BD20-F9D8BC432EAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EBD6B448-DD81-4078-9D8E-CABD40A131B1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>QuickSort</t>
   </si>
@@ -47,11 +47,17 @@
   <si>
     <t>odwrotnie</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +151,6 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -155,7 +160,6 @@
     <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,7 +181,6 @@
     <xf numFmtId="11" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -195,6 +198,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -345,19 +355,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>1.5180000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>3.2280000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.17779</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.33789999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,19 +436,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.1000000000000004E-4</c:v>
+                  <c:v>2.5400000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0899999999999999E-3</c:v>
+                  <c:v>1.316E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4599999999999996E-3</c:v>
+                  <c:v>2.7019999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4360000000000002E-2</c:v>
+                  <c:v>0.14291999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10532</c:v>
+                  <c:v>0.28752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,19 +517,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0499999999999999E-3</c:v>
+                  <c:v>2.0799999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2599999999999999E-3</c:v>
+                  <c:v>1.0540000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2760000000000001E-2</c:v>
+                  <c:v>2.274E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.762E-2</c:v>
+                  <c:v>0.11992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14072000000000001</c:v>
+                  <c:v>0.24882000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,19 +598,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7799999999999999E-3</c:v>
+                  <c:v>1.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8499999999999994E-3</c:v>
+                  <c:v>8.8999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9519999999999999E-2</c:v>
+                  <c:v>1.7780000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10356</c:v>
+                  <c:v>9.7259999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21529999999999999</c:v>
+                  <c:v>0.20898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,19 +679,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7200000000000002E-3</c:v>
+                  <c:v>1.5200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.201E-2</c:v>
+                  <c:v>7.7799999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4570000000000002E-2</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13372999999999999</c:v>
+                  <c:v>8.6999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27211999999999997</c:v>
+                  <c:v>0.17621999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,19 +760,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4099999999999998E-3</c:v>
+                  <c:v>1.5200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.234E-2</c:v>
+                  <c:v>7.26E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5829999999999999E-2</c:v>
+                  <c:v>1.4959999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13572999999999999</c:v>
+                  <c:v>7.9920000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28905999999999998</c:v>
+                  <c:v>0.16420000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,19 +843,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.49E-3</c:v>
+                  <c:v>2.48E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.244E-2</c:v>
+                  <c:v>7.8200000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.596E-2</c:v>
+                  <c:v>1.602E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13799</c:v>
+                  <c:v>8.344E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28028999999999998</c:v>
+                  <c:v>0.1709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,19 +926,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.67E-3</c:v>
+                  <c:v>1.7799999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4299999999999991E-3</c:v>
+                  <c:v>8.94E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8550000000000001E-2</c:v>
+                  <c:v>1.924E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9120000000000005E-2</c:v>
+                  <c:v>9.9239999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17979000000000001</c:v>
+                  <c:v>0.22056000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1285,19 +1295,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.256E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.3619999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.14194000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.73402999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.4829600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,19 +1376,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>2.2300000000000002E-3</c:v>
+                  <c:v>1.17E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.362E-2</c:v>
+                  <c:v>7.1040000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6679999999999999E-2</c:v>
+                  <c:v>0.12973999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15196999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42523</c:v>
+                  <c:v>0.66742000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>1.3827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,19 +1457,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.4999999999999997E-3</c:v>
+                  <c:v>1.306E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6780000000000002E-2</c:v>
+                  <c:v>6.1519999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6030000000000003E-2</c:v>
+                  <c:v>0.13045999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3014</c:v>
+                  <c:v>0.64732000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61973999999999996</c:v>
+                  <c:v>1.31898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,19 +1538,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.4599999999999996E-3</c:v>
+                  <c:v>1.1299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4040000000000003E-2</c:v>
+                  <c:v>6.1440000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5599999999999996E-2</c:v>
+                  <c:v>0.11232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45601999999999998</c:v>
+                  <c:v>0.53649999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94503000000000004</c:v>
+                  <c:v>1.14028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,19 +1619,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0500000000000001E-2</c:v>
+                  <c:v>1.8380000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2880000000000003E-2</c:v>
+                  <c:v>7.9759999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10979999999999999</c:v>
+                  <c:v>0.12006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59257000000000004</c:v>
+                  <c:v>0.53064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2056800000000001</c:v>
+                  <c:v>1.137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1690,19 +1700,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0789999999999999E-2</c:v>
+                  <c:v>1.7579999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3789999999999998E-2</c:v>
+                  <c:v>0.15526000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1166</c:v>
+                  <c:v>0.21312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60731999999999997</c:v>
+                  <c:v>0.71733999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25244</c:v>
+                  <c:v>1.7066399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,19 +1783,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.031E-2</c:v>
+                  <c:v>5.1499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5100000000000003E-2</c:v>
+                  <c:v>0.11686000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11650000000000001</c:v>
+                  <c:v>0.20562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60902000000000001</c:v>
+                  <c:v>0.81235000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2475099999999999</c:v>
+                  <c:v>1.8923099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,19 +1866,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8300000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.614E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0290000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28660000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58819999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2225,19 +2235,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>7.1799999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>3.1469999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>7.0559999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.40333999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.83848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,19 +2316,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.07E-3</c:v>
+                  <c:v>5.6600000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8300000000000001E-3</c:v>
+                  <c:v>3.5639999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3860000000000001E-2</c:v>
+                  <c:v>6.5460000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7130000000000004E-2</c:v>
+                  <c:v>0.35826000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23285</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,19 +2397,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3400000000000001E-3</c:v>
+                  <c:v>6.2399999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3469999999999999E-2</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.845E-2</c:v>
+                  <c:v>7.2080000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15847</c:v>
+                  <c:v>0.46045999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34066999999999997</c:v>
+                  <c:v>1.13696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2468,19 +2478,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.9300000000000003E-3</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.197E-2</c:v>
+                  <c:v>2.512E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3729999999999998E-2</c:v>
+                  <c:v>5.1380000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24646999999999999</c:v>
+                  <c:v>0.30293999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52730999999999995</c:v>
+                  <c:v>0.67876000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2549,19 +2559,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.5100000000000001E-3</c:v>
+                  <c:v>3.9199999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.673E-2</c:v>
+                  <c:v>2.1180000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5489999999999998E-2</c:v>
+                  <c:v>4.4380000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32052000000000003</c:v>
+                  <c:v>0.26022000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67747999999999997</c:v>
+                  <c:v>0.55713999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2630,19 +2640,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.3899999999999998E-3</c:v>
+                  <c:v>3.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.741E-2</c:v>
+                  <c:v>1.6879999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8160000000000003E-2</c:v>
+                  <c:v>3.492E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32689000000000001</c:v>
+                  <c:v>0.21596000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70877999999999997</c:v>
+                  <c:v>0.47049999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,19 +2723,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.0299999999999997E-3</c:v>
+                  <c:v>4.5599999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7390000000000001E-2</c:v>
+                  <c:v>1.7080000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0109999999999997E-2</c:v>
+                  <c:v>3.5959999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33307999999999999</c:v>
+                  <c:v>0.21521999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70279999999999998</c:v>
+                  <c:v>0.48282000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,19 +2806,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9499999999999999E-3</c:v>
+                  <c:v>1.98E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.102E-2</c:v>
+                  <c:v>1.1140000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3029999999999998E-2</c:v>
+                  <c:v>2.5239999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15289</c:v>
+                  <c:v>0.13524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33896999999999999</c:v>
+                  <c:v>0.39961999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3165,19 +3175,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>9.7199999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>5.1409999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.11376</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.55191999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>1.1293599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3246,19 +3256,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.31E-3</c:v>
+                  <c:v>9.0799999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.12E-2</c:v>
+                  <c:v>5.9240000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1780000000000001E-2</c:v>
+                  <c:v>0.10688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11829000000000001</c:v>
+                  <c:v>0.49528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35914000000000001</c:v>
+                  <c:v>1.0581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,19 +3337,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.5999999999999999E-3</c:v>
+                  <c:v>1.4420000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0830000000000001E-2</c:v>
+                  <c:v>7.3300000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5879999999999997E-2</c:v>
+                  <c:v>0.1671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23033999999999999</c:v>
+                  <c:v>0.96372000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46046999999999999</c:v>
+                  <c:v>1.95038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3408,19 +3418,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.3200000000000001E-3</c:v>
+                  <c:v>6.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4470000000000001E-2</c:v>
+                  <c:v>3.7179999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7339999999999997E-2</c:v>
+                  <c:v>7.238E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36237999999999998</c:v>
+                  <c:v>0.34351999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70928000000000002</c:v>
+                  <c:v>0.76802000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3489,19 +3499,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.6999999999999994E-3</c:v>
+                  <c:v>5.9800000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3310000000000001E-2</c:v>
+                  <c:v>3.8120000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6190000000000003E-2</c:v>
+                  <c:v>7.9960000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43080000000000002</c:v>
+                  <c:v>0.35258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91900000000000004</c:v>
+                  <c:v>0.74897999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3570,19 +3580,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.5400000000000007E-3</c:v>
+                  <c:v>5.0200000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4220000000000002E-2</c:v>
+                  <c:v>2.5919999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.196E-2</c:v>
+                  <c:v>5.0880000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44290000000000002</c:v>
+                  <c:v>0.25794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95216999999999996</c:v>
+                  <c:v>0.58352000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,19 +3663,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.77E-3</c:v>
+                  <c:v>8.7600000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5019999999999998E-2</c:v>
+                  <c:v>2.3959999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.085E-2</c:v>
+                  <c:v>4.6719999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44195000000000001</c:v>
+                  <c:v>0.22375999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94837000000000005</c:v>
+                  <c:v>0.51948000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3736,19 +3746,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.5999999999999998E-4</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8300000000000001E-3</c:v>
+                  <c:v>6.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1599999999999999E-2</c:v>
+                  <c:v>1.2880000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1929999999999994E-2</c:v>
+                  <c:v>8.2879999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22652</c:v>
+                  <c:v>0.27010000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6649,10 +6659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C10C85-ABC6-48C6-80D6-99015EA13158}">
-  <dimension ref="B3:N24"/>
+  <dimension ref="B3:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6662,724 +6672,1442 @@
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="I3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="2">
+      <c r="C4" s="20">
         <v>10000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="20">
         <v>50000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="20">
         <v>100000</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="20">
         <v>500000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="20">
         <v>1000000</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="2">
+      <c r="J4" s="20">
         <v>10000</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="20">
         <v>50000</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="20">
         <v>100000</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="20">
         <v>500000</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="20">
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.5180000000000001E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.2280000000000003E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.17779</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.33789999999999998</v>
+      </c>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
+      <c r="J5" s="7">
+        <v>1.256E-2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>6.3619999999999996E-2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.14194000000000001</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.73402999999999996</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1.4829600000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>0.25</v>
       </c>
-      <c r="C6" s="6">
-        <v>5.1000000000000004E-4</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3.0899999999999999E-3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6.4599999999999996E-3</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3.4360000000000002E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.10532</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="C6" s="5">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.316E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.7019999999999999E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.14291999999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.28752</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.25</v>
       </c>
-      <c r="J6" s="10">
-        <v>2.2300000000000002E-3</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1.362E-2</v>
-      </c>
-      <c r="L6" s="9">
-        <v>2.6679999999999999E-2</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0.15196999999999999</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0.42523</v>
-      </c>
+      <c r="J6" s="8">
+        <v>1.17E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>7.1040000000000006E-2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.12973999999999999</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.66742000000000001</v>
+      </c>
+      <c r="N6" s="22">
+        <v>1.3827</v>
+      </c>
+      <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>0.5</v>
       </c>
-      <c r="C7" s="6">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>6.2599999999999999E-3</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.2760000000000001E-2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>6.762E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.14072000000000001</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="C7" s="5">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.274E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.11992</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.24882000000000001</v>
+      </c>
+      <c r="I7" s="2">
         <v>0.5</v>
       </c>
-      <c r="J7" s="9">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="K7" s="9">
-        <v>2.6780000000000002E-2</v>
-      </c>
-      <c r="L7" s="9">
-        <v>5.6030000000000003E-2</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0.3014</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0.61973999999999996</v>
+      <c r="J7" s="7">
+        <v>1.306E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>6.1519999999999998E-2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.13045999999999999</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.64732000000000001</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1.31898</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>0.75</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.7780000000000001E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9.7259999999999999E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.20898</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>6.1440000000000002E-2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.11232</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1.14028</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.17621999999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1.8380000000000001E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>7.9759999999999998E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.12006</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.53064</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.26E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.4959999999999999E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7.9920000000000005E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.16420000000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1.7579999999999998E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.15526000000000001</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.21312</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.71733999999999998</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1.7066399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.48E-3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7.8200000000000006E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.602E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8.344E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.1709</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="J11" s="7">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.11686000000000001</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.20562</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.81235000000000002</v>
+      </c>
+      <c r="N11" s="7">
+        <f>1.89231</f>
+        <v>1.8923099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14">
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="D8" s="6">
-        <v>9.8499999999999994E-3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1.9519999999999999E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.10356</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.21529999999999999</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="J8" s="9">
-        <v>7.4599999999999996E-3</v>
-      </c>
-      <c r="K8" s="9">
-        <v>4.4040000000000003E-2</v>
-      </c>
-      <c r="L8" s="9">
-        <v>8.5599999999999996E-2</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0.45601999999999998</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0.94503000000000004</v>
+      <c r="D12" s="14">
+        <v>8.94E-3</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1.924E-2</v>
+      </c>
+      <c r="F12" s="14">
+        <v>9.9239999999999995E-2</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.22056000000000001</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2.7200000000000002E-3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.201E-2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2.4570000000000002E-2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.13372999999999999</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.27211999999999997</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="K9" s="9">
-        <v>5.2880000000000003E-2</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0.10979999999999999</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0.59257000000000004</v>
-      </c>
-      <c r="N9" s="9">
-        <v>1.2056800000000001</v>
-      </c>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="I15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2.4099999999999998E-3</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.234E-2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2.5829999999999999E-2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.13572999999999999</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.28905999999999998</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1.0789999999999999E-2</v>
-      </c>
-      <c r="K10" s="9">
-        <v>5.3789999999999998E-2</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0.1166</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0.60731999999999997</v>
-      </c>
-      <c r="N10" s="9">
-        <v>1.25244</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>0.997</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.49E-3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1.244E-2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2.596E-2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.13799</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.28028999999999998</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.997</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1.031E-2</v>
-      </c>
-      <c r="K11" s="9">
-        <v>5.5100000000000003E-2</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0.11650000000000001</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0.60902000000000001</v>
-      </c>
-      <c r="N11" s="9">
-        <v>1.2475099999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1.67E-3</v>
-      </c>
-      <c r="D12" s="8">
-        <v>9.4299999999999991E-3</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1.8550000000000001E-2</v>
-      </c>
-      <c r="F12" s="8">
-        <v>8.9120000000000005E-2</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0.17979000000000001</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="11">
-        <v>3.8300000000000001E-3</v>
-      </c>
-      <c r="K12" s="11">
-        <v>2.614E-2</v>
-      </c>
-      <c r="L12" s="11">
-        <v>5.0290000000000001E-2</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0.28660000000000002</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0.58819999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="I15" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="2">
+      <c r="C16" s="20">
         <v>10000</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="20">
         <v>50000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="20">
         <v>100000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="20">
         <v>500000</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="20">
         <v>1000000</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="2">
+      <c r="J16" s="20">
         <v>10000</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="20">
         <v>50000</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="20">
         <v>100000</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="20">
         <v>500000</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="20">
         <v>1000000</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
+        <v>7.1799999999999998E-3</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3.1469999999999998E-2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.40333999999999998</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.83848</v>
+      </c>
+      <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="13">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0</v>
-      </c>
-      <c r="K17" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L17" s="14">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14">
-        <v>0</v>
-      </c>
-      <c r="N17" s="15">
-        <v>1.0000000000000001E-5</v>
+      <c r="J17" s="12">
+        <v>9.7199999999999995E-3</v>
+      </c>
+      <c r="K17" s="13">
+        <v>5.1409999999999997E-2</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.11376</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.55191999999999997</v>
+      </c>
+      <c r="N17" s="13">
+        <v>1.1293599999999999</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0.25</v>
       </c>
-      <c r="C18" s="12">
-        <v>1.07E-3</v>
-      </c>
-      <c r="D18" s="12">
-        <v>6.8300000000000001E-3</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1.3860000000000001E-2</v>
-      </c>
-      <c r="F18" s="12">
-        <v>7.7130000000000004E-2</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0.23285</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="C18" s="10">
+        <v>5.6600000000000001E-3</v>
+      </c>
+      <c r="D18" s="10">
+        <v>3.5639999999999998E-2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>6.5460000000000004E-2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.35826000000000002</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I18" s="2">
         <v>0.25</v>
       </c>
-      <c r="J18" s="14">
-        <v>2.31E-3</v>
-      </c>
-      <c r="K18" s="14">
-        <v>1.12E-2</v>
-      </c>
-      <c r="L18" s="14">
-        <v>2.1780000000000001E-2</v>
-      </c>
-      <c r="M18" s="14">
-        <v>0.11829000000000001</v>
-      </c>
-      <c r="N18" s="14">
-        <v>0.35914000000000001</v>
+      <c r="J18" s="12">
+        <v>9.0799999999999995E-3</v>
+      </c>
+      <c r="K18" s="12">
+        <v>5.9240000000000001E-2</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.10688</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0.49528</v>
+      </c>
+      <c r="N18" s="12">
+        <v>1.0581</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>0.5</v>
       </c>
-      <c r="C19" s="12">
-        <v>2.3400000000000001E-3</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1.3469999999999999E-2</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2.845E-2</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0.15847</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0.34066999999999997</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="C19" s="10">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="D19" s="10">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>7.2080000000000005E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.46045999999999998</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1.13696</v>
+      </c>
+      <c r="I19" s="2">
         <v>0.5</v>
       </c>
-      <c r="J19" s="14">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="K19" s="14">
-        <v>2.0830000000000001E-2</v>
-      </c>
-      <c r="L19" s="14">
-        <v>4.5879999999999997E-2</v>
-      </c>
-      <c r="M19" s="14">
-        <v>0.23033999999999999</v>
-      </c>
-      <c r="N19" s="14">
-        <v>0.46046999999999999</v>
+      <c r="J19" s="12">
+        <v>1.4420000000000001E-2</v>
+      </c>
+      <c r="K19" s="12">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.1671</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.96372000000000002</v>
+      </c>
+      <c r="N19" s="12">
+        <v>1.95038</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>0.75</v>
       </c>
-      <c r="C20" s="12">
-        <v>3.9300000000000003E-3</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2.197E-2</v>
-      </c>
-      <c r="E20" s="12">
-        <v>4.3729999999999998E-2</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0.24646999999999999</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0.52730999999999995</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="C20" s="10">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.512E-2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>5.1380000000000002E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.30293999999999999</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.67876000000000003</v>
+      </c>
+      <c r="I20" s="2">
         <v>0.75</v>
       </c>
-      <c r="J20" s="14">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="K20" s="14">
-        <v>3.4470000000000001E-2</v>
-      </c>
-      <c r="L20" s="14">
-        <v>6.7339999999999997E-2</v>
-      </c>
-      <c r="M20" s="14">
-        <v>0.36237999999999998</v>
-      </c>
-      <c r="N20" s="14">
-        <v>0.70928000000000002</v>
+      <c r="J20" s="12">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="K20" s="12">
+        <v>3.7179999999999998E-2</v>
+      </c>
+      <c r="L20" s="12">
+        <v>7.238E-2</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.34351999999999999</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.76802000000000004</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>0.95</v>
       </c>
-      <c r="C21" s="12">
-        <v>5.5100000000000001E-3</v>
-      </c>
-      <c r="D21" s="12">
-        <v>2.673E-2</v>
-      </c>
-      <c r="E21" s="12">
-        <v>5.5489999999999998E-2</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0.32052000000000003</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0.67747999999999997</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="C21" s="10">
+        <v>3.9199999999999999E-3</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2.1180000000000001E-2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4.4380000000000003E-2</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.26022000000000001</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.55713999999999997</v>
+      </c>
+      <c r="I21" s="2">
         <v>0.95</v>
       </c>
-      <c r="J21" s="14">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="K21" s="14">
-        <v>4.3310000000000001E-2</v>
-      </c>
-      <c r="L21" s="14">
-        <v>8.6190000000000003E-2</v>
-      </c>
-      <c r="M21" s="14">
-        <v>0.43080000000000002</v>
-      </c>
-      <c r="N21" s="14">
-        <v>0.91900000000000004</v>
+      <c r="J21" s="12">
+        <v>5.9800000000000001E-3</v>
+      </c>
+      <c r="K21" s="12">
+        <v>3.8120000000000001E-2</v>
+      </c>
+      <c r="L21" s="12">
+        <v>7.9960000000000003E-2</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0.35258</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0.74897999999999998</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>0.99</v>
       </c>
-      <c r="C22" s="12">
-        <v>5.3899999999999998E-3</v>
-      </c>
-      <c r="D22" s="12">
-        <v>2.741E-2</v>
-      </c>
-      <c r="E22" s="12">
-        <v>5.8160000000000003E-2</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0.32689000000000001</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0.70877999999999997</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="C22" s="10">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1.6879999999999999E-2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>3.492E-2</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.21596000000000001</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="I22" s="2">
         <v>0.99</v>
       </c>
-      <c r="J22" s="14">
-        <v>8.5400000000000007E-3</v>
-      </c>
-      <c r="K22" s="14">
-        <v>4.4220000000000002E-2</v>
-      </c>
-      <c r="L22" s="14">
-        <v>9.196E-2</v>
-      </c>
-      <c r="M22" s="14">
-        <v>0.44290000000000002</v>
-      </c>
-      <c r="N22" s="14">
-        <v>0.95216999999999996</v>
+      <c r="J22" s="12">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="K22" s="12">
+        <v>2.5919999999999999E-2</v>
+      </c>
+      <c r="L22" s="12">
+        <v>5.0880000000000002E-2</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0.25794</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0.58352000000000004</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.997</v>
       </c>
-      <c r="C23" s="12">
-        <v>5.0299999999999997E-3</v>
-      </c>
-      <c r="D23" s="12">
-        <v>2.7390000000000001E-2</v>
-      </c>
-      <c r="E23" s="12">
-        <v>6.0109999999999997E-2</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0.33307999999999999</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0.70279999999999998</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="C23" s="10">
+        <v>4.5599999999999998E-3</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1.7080000000000001E-2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>3.5959999999999999E-2</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.21521999999999999</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.48282000000000003</v>
+      </c>
+      <c r="I23" s="3">
         <v>0.997</v>
       </c>
-      <c r="J23" s="14">
-        <v>7.77E-3</v>
-      </c>
-      <c r="K23" s="14">
-        <v>4.5019999999999998E-2</v>
-      </c>
-      <c r="L23" s="14">
-        <v>9.085E-2</v>
-      </c>
-      <c r="M23" s="14">
-        <v>0.44195000000000001</v>
-      </c>
-      <c r="N23" s="14">
-        <v>0.94837000000000005</v>
+      <c r="J23" s="12">
+        <v>8.7600000000000004E-3</v>
+      </c>
+      <c r="K23" s="12">
+        <v>2.3959999999999999E-2</v>
+      </c>
+      <c r="L23" s="12">
+        <v>4.6719999999999998E-2</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0.22375999999999999</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.51948000000000005</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
+        <v>1.98E-3</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1.1140000000000001E-2</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2.5239999999999999E-2</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.13524</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.39961999999999998</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="K24" s="15">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="L24" s="15">
+        <v>1.2880000000000001E-2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>8.2879999999999995E-2</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0.27010000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="I76" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D77" s="20">
+        <v>50000</v>
+      </c>
+      <c r="E77" s="20">
+        <v>100000</v>
+      </c>
+      <c r="F77" s="20">
+        <v>500000</v>
+      </c>
+      <c r="G77" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="20">
+        <v>10000</v>
+      </c>
+      <c r="K77" s="20">
+        <v>50000</v>
+      </c>
+      <c r="L77" s="20">
+        <v>100000</v>
+      </c>
+      <c r="M77" s="20">
+        <v>500000</v>
+      </c>
+      <c r="N77" s="20">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1.5180000000000001E-2</v>
+      </c>
+      <c r="E78" s="5">
+        <v>3.2280000000000003E-2</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.17779</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.33789999999999998</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>1.256E-2</v>
+      </c>
+      <c r="K78" s="7">
+        <v>6.3619999999999996E-2</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0.14194000000000001</v>
+      </c>
+      <c r="M78" s="7">
+        <v>0.73402999999999996</v>
+      </c>
+      <c r="N78" s="7">
+        <v>1.4829600000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C79" s="5">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="D79" s="5">
+        <v>3.0899999999999999E-3</v>
+      </c>
+      <c r="E79" s="5">
+        <v>6.4599999999999996E-3</v>
+      </c>
+      <c r="F79" s="5">
+        <v>3.4360000000000002E-2</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.10532</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J79" s="8">
+        <v>2.2300000000000002E-3</v>
+      </c>
+      <c r="K79" s="7">
+        <v>1.362E-2</v>
+      </c>
+      <c r="L79" s="7">
+        <v>2.6679999999999999E-2</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0.15196999999999999</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0.42523</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="D80" s="5">
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1.2760000000000001E-2</v>
+      </c>
+      <c r="F80" s="5">
+        <v>6.762E-2</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.14072000000000001</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J80" s="7">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="K80" s="7">
+        <v>2.6780000000000002E-2</v>
+      </c>
+      <c r="L80" s="7">
+        <v>5.6030000000000003E-2</v>
+      </c>
+      <c r="M80" s="7">
+        <v>0.3014</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0.61973999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="D81" s="5">
+        <v>9.8499999999999994E-3</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.10356</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="J81" s="7">
+        <v>7.4599999999999996E-3</v>
+      </c>
+      <c r="K81" s="7">
+        <v>4.4040000000000003E-2</v>
+      </c>
+      <c r="L81" s="7">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0.45601999999999998</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0.94503000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1.201E-2</v>
+      </c>
+      <c r="E82" s="5">
+        <v>2.4570000000000002E-2</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.13372999999999999</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.27211999999999997</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J82" s="7">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="K82" s="7">
+        <v>5.2880000000000003E-2</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="M82" s="7">
+        <v>0.59257000000000004</v>
+      </c>
+      <c r="N82" s="7">
+        <v>1.2056800000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1.234E-2</v>
+      </c>
+      <c r="E83" s="5">
+        <v>2.5829999999999999E-2</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.13572999999999999</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0.28905999999999998</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="J83" s="7">
+        <v>1.0789999999999999E-2</v>
+      </c>
+      <c r="K83" s="7">
+        <v>5.3789999999999998E-2</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0.1166</v>
+      </c>
+      <c r="M83" s="7">
+        <v>0.60731999999999997</v>
+      </c>
+      <c r="N83" s="7">
+        <v>1.25244</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2.49E-3</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1.244E-2</v>
+      </c>
+      <c r="E84" s="5">
+        <v>2.596E-2</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.13799</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.28028999999999998</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="J84" s="7">
+        <v>1.031E-2</v>
+      </c>
+      <c r="K84" s="7">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="M84" s="7">
+        <v>0.60902000000000001</v>
+      </c>
+      <c r="N84" s="7">
+        <v>1.2475099999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="14">
+        <v>1.67E-3</v>
+      </c>
+      <c r="D85" s="14">
+        <v>9.4299999999999991E-3</v>
+      </c>
+      <c r="E85" s="14">
+        <v>1.8550000000000001E-2</v>
+      </c>
+      <c r="F85" s="14">
+        <v>8.9120000000000005E-2</v>
+      </c>
+      <c r="G85" s="14">
+        <v>0.17979000000000001</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J85" s="9">
+        <v>3.8300000000000001E-3</v>
+      </c>
+      <c r="K85" s="9">
+        <v>2.614E-2</v>
+      </c>
+      <c r="L85" s="9">
+        <v>5.0290000000000001E-2</v>
+      </c>
+      <c r="M85" s="9">
+        <v>0.28660000000000002</v>
+      </c>
+      <c r="N85" s="9">
+        <v>0.58819999999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="I88" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+      <c r="C89" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D89" s="20">
+        <v>50000</v>
+      </c>
+      <c r="E89" s="20">
+        <v>100000</v>
+      </c>
+      <c r="F89" s="20">
+        <v>500000</v>
+      </c>
+      <c r="G89" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="20">
+        <v>10000</v>
+      </c>
+      <c r="K89" s="20">
+        <v>50000</v>
+      </c>
+      <c r="L89" s="20">
+        <v>100000</v>
+      </c>
+      <c r="M89" s="20">
+        <v>500000</v>
+      </c>
+      <c r="N89" s="20">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+      <c r="C90" s="10">
+        <v>7.1799999999999998E-3</v>
+      </c>
+      <c r="D90" s="11">
+        <v>3.1469999999999998E-2</v>
+      </c>
+      <c r="E90" s="10">
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="F90" s="10">
+        <v>0.40333999999999998</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0.83848</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="12">
+        <v>9.7199999999999995E-3</v>
+      </c>
+      <c r="K90" s="13">
+        <v>5.1409999999999997E-2</v>
+      </c>
+      <c r="L90" s="12">
+        <v>0.11376</v>
+      </c>
+      <c r="M90" s="12">
+        <v>0.55191999999999997</v>
+      </c>
+      <c r="N90" s="13">
+        <v>1.1293599999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C91" s="10">
+        <v>1.07E-3</v>
+      </c>
+      <c r="D91" s="10">
+        <v>6.8300000000000001E-3</v>
+      </c>
+      <c r="E91" s="10">
+        <v>1.3860000000000001E-2</v>
+      </c>
+      <c r="F91" s="10">
+        <v>7.7130000000000004E-2</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0.23285</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J91" s="12">
+        <v>2.31E-3</v>
+      </c>
+      <c r="K91" s="12">
+        <v>1.12E-2</v>
+      </c>
+      <c r="L91" s="12">
+        <v>2.1780000000000001E-2</v>
+      </c>
+      <c r="M91" s="12">
+        <v>0.11829000000000001</v>
+      </c>
+      <c r="N91" s="12">
+        <v>0.35914000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C92" s="10">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="D92" s="10">
+        <v>1.3469999999999999E-2</v>
+      </c>
+      <c r="E92" s="10">
+        <v>2.845E-2</v>
+      </c>
+      <c r="F92" s="10">
+        <v>0.15847</v>
+      </c>
+      <c r="G92" s="10">
+        <v>0.34066999999999997</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J92" s="12">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="K92" s="12">
+        <v>2.0830000000000001E-2</v>
+      </c>
+      <c r="L92" s="12">
+        <v>4.5879999999999997E-2</v>
+      </c>
+      <c r="M92" s="12">
+        <v>0.23033999999999999</v>
+      </c>
+      <c r="N92" s="12">
+        <v>0.46046999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C93" s="10">
+        <v>3.9300000000000003E-3</v>
+      </c>
+      <c r="D93" s="10">
+        <v>2.197E-2</v>
+      </c>
+      <c r="E93" s="10">
+        <v>4.3729999999999998E-2</v>
+      </c>
+      <c r="F93" s="10">
+        <v>0.24646999999999999</v>
+      </c>
+      <c r="G93" s="10">
+        <v>0.52730999999999995</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="J93" s="12">
+        <v>6.3200000000000001E-3</v>
+      </c>
+      <c r="K93" s="12">
+        <v>3.4470000000000001E-2</v>
+      </c>
+      <c r="L93" s="12">
+        <v>6.7339999999999997E-2</v>
+      </c>
+      <c r="M93" s="12">
+        <v>0.36237999999999998</v>
+      </c>
+      <c r="N93" s="12">
+        <v>0.70928000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C94" s="10">
+        <v>5.5100000000000001E-3</v>
+      </c>
+      <c r="D94" s="10">
+        <v>2.673E-2</v>
+      </c>
+      <c r="E94" s="10">
+        <v>5.5489999999999998E-2</v>
+      </c>
+      <c r="F94" s="10">
+        <v>0.32052000000000003</v>
+      </c>
+      <c r="G94" s="10">
+        <v>0.67747999999999997</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J94" s="12">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="K94" s="12">
+        <v>4.3310000000000001E-2</v>
+      </c>
+      <c r="L94" s="12">
+        <v>8.6190000000000003E-2</v>
+      </c>
+      <c r="M94" s="12">
+        <v>0.43080000000000002</v>
+      </c>
+      <c r="N94" s="12">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C95" s="10">
+        <v>5.3899999999999998E-3</v>
+      </c>
+      <c r="D95" s="10">
+        <v>2.741E-2</v>
+      </c>
+      <c r="E95" s="10">
+        <v>5.8160000000000003E-2</v>
+      </c>
+      <c r="F95" s="10">
+        <v>0.32689000000000001</v>
+      </c>
+      <c r="G95" s="10">
+        <v>0.70877999999999997</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="J95" s="12">
+        <v>8.5400000000000007E-3</v>
+      </c>
+      <c r="K95" s="12">
+        <v>4.4220000000000002E-2</v>
+      </c>
+      <c r="L95" s="12">
+        <v>9.196E-2</v>
+      </c>
+      <c r="M95" s="12">
+        <v>0.44290000000000002</v>
+      </c>
+      <c r="N95" s="12">
+        <v>0.95216999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="C96" s="10">
+        <v>5.0299999999999997E-3</v>
+      </c>
+      <c r="D96" s="10">
+        <v>2.7390000000000001E-2</v>
+      </c>
+      <c r="E96" s="10">
+        <v>6.0109999999999997E-2</v>
+      </c>
+      <c r="F96" s="10">
+        <v>0.33307999999999999</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="J96" s="12">
+        <v>7.77E-3</v>
+      </c>
+      <c r="K96" s="12">
+        <v>4.5019999999999998E-2</v>
+      </c>
+      <c r="L96" s="12">
+        <v>9.085E-2</v>
+      </c>
+      <c r="M96" s="12">
+        <v>0.44195000000000001</v>
+      </c>
+      <c r="N96" s="12">
+        <v>0.94837000000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="10">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D97" s="10">
         <v>1.102E-2</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E97" s="10">
         <v>2.3029999999999998E-2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F97" s="10">
         <v>0.15289</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G97" s="10">
         <v>0.33896999999999999</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I97" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J97" s="15">
         <v>8.5999999999999998E-4</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K97" s="15">
         <v>5.8300000000000001E-3</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L97" s="15">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M97" s="15">
         <v>7.1929999999999994E-2</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N97" s="15">
         <v>0.22652</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="I88:N88"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="I15:N15"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="I76:N76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Projekt2/Sortowanie.xlsx
+++ b/Projekt2/Sortowanie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\source\repos\Piotr601\PAMSI\Projekt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62703517-0165-445F-BD20-F9D8BC432EAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364BA66C-F08E-4F19-9DF3-FEF411193F38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EBD6B448-DD81-4078-9D8E-CABD40A131B1}"/>
   </bookViews>
@@ -6661,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C10C85-ABC6-48C6-80D6-99015EA13158}">
   <dimension ref="B3:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="H51" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Projekt2/Sortowanie.xlsx
+++ b/Projekt2/Sortowanie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\source\repos\Piotr601\PAMSI\Projekt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364BA66C-F08E-4F19-9DF3-FEF411193F38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C34195B-2A09-467B-8038-A32B9E0583F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EBD6B448-DD81-4078-9D8E-CABD40A131B1}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -187,11 +187,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,12 +200,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6661,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C10C85-ABC6-48C6-80D6-99015EA13158}">
   <dimension ref="B3:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H51" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6673,54 +6673,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="I3" s="17" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="I3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>10000</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="16">
         <v>50000</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <v>100000</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="16">
         <v>500000</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="16">
         <v>1000000</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="20">
+      <c r="J4" s="16">
         <v>10000</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="16">
         <v>50000</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="16">
         <v>100000</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="16">
         <v>500000</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="16">
         <v>1000000</v>
       </c>
     </row>
@@ -6796,10 +6796,10 @@
       <c r="M6" s="7">
         <v>0.66742000000000001</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="18">
         <v>1.3827</v>
       </c>
-      <c r="O6" s="21"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -7031,54 +7031,54 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="I15" s="19" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="I15" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="20">
+      <c r="C16" s="16">
         <v>10000</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="16">
         <v>50000</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <v>100000</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="16">
         <v>500000</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="16">
         <v>1000000</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="20">
+      <c r="J16" s="16">
         <v>10000</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="16">
         <v>50000</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="16">
         <v>100000</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="16">
         <v>500000</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="16">
         <v>1000000</v>
       </c>
     </row>
@@ -7387,54 +7387,54 @@
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="I76" s="17" t="s">
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="I76" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
-      <c r="C77" s="20">
+      <c r="C77" s="16">
         <v>10000</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="16">
         <v>50000</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="16">
         <v>100000</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F77" s="16">
         <v>500000</v>
       </c>
-      <c r="G77" s="20">
+      <c r="G77" s="16">
         <v>1000000</v>
       </c>
       <c r="I77" s="1"/>
-      <c r="J77" s="20">
+      <c r="J77" s="16">
         <v>10000</v>
       </c>
-      <c r="K77" s="20">
+      <c r="K77" s="16">
         <v>50000</v>
       </c>
-      <c r="L77" s="20">
+      <c r="L77" s="16">
         <v>100000</v>
       </c>
-      <c r="M77" s="20">
+      <c r="M77" s="16">
         <v>500000</v>
       </c>
-      <c r="N77" s="20">
+      <c r="N77" s="16">
         <v>1000000</v>
       </c>
     </row>
@@ -7743,54 +7743,54 @@
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="I88" s="19" t="s">
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="I88" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
-      <c r="C89" s="20">
+      <c r="C89" s="16">
         <v>10000</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="16">
         <v>50000</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="16">
         <v>100000</v>
       </c>
-      <c r="F89" s="20">
+      <c r="F89" s="16">
         <v>500000</v>
       </c>
-      <c r="G89" s="20">
+      <c r="G89" s="16">
         <v>1000000</v>
       </c>
       <c r="I89" s="1"/>
-      <c r="J89" s="20">
+      <c r="J89" s="16">
         <v>10000</v>
       </c>
-      <c r="K89" s="20">
+      <c r="K89" s="16">
         <v>50000</v>
       </c>
-      <c r="L89" s="20">
+      <c r="L89" s="16">
         <v>100000</v>
       </c>
-      <c r="M89" s="20">
+      <c r="M89" s="16">
         <v>500000</v>
       </c>
-      <c r="N89" s="20">
+      <c r="N89" s="16">
         <v>1000000</v>
       </c>
     </row>
